--- a/BackTest/2019-10-29 BackTest ETC.xlsx
+++ b/BackTest/2019-10-29 BackTest ETC.xlsx
@@ -1291,13 +1291,17 @@
         <v>5604</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>5585</v>
+      </c>
+      <c r="K26" t="n">
+        <v>5585</v>
+      </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
@@ -1326,14 +1330,22 @@
         <v>5601</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>5585</v>
+      </c>
+      <c r="K27" t="n">
+        <v>5585</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1361,14 +1373,22 @@
         <v>5597.75</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>5575</v>
+      </c>
+      <c r="K28" t="n">
+        <v>5585</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1396,13 +1416,17 @@
         <v>5594</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>5575</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5575</v>
+      </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
@@ -1431,14 +1455,22 @@
         <v>5590.5</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>5575</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1466,14 +1498,22 @@
         <v>5587.25</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>5575</v>
+      </c>
+      <c r="K31" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1501,14 +1541,22 @@
         <v>5584.5</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>5585</v>
+      </c>
+      <c r="K32" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1536,14 +1584,22 @@
         <v>5580</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>5585</v>
+      </c>
+      <c r="K33" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1571,14 +1627,22 @@
         <v>5575.75</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>5550</v>
+      </c>
+      <c r="K34" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1606,14 +1670,22 @@
         <v>5572.5</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>5550</v>
+      </c>
+      <c r="K35" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1641,14 +1713,22 @@
         <v>5570.25</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>5560</v>
+      </c>
+      <c r="K36" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1676,14 +1756,22 @@
         <v>5567.25</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>5540</v>
+      </c>
+      <c r="K37" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1711,14 +1799,22 @@
         <v>5564</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>5530</v>
+      </c>
+      <c r="K38" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1746,14 +1842,22 @@
         <v>5562</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>5520</v>
+      </c>
+      <c r="K39" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1781,14 +1885,22 @@
         <v>5561.5</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>5560</v>
+      </c>
+      <c r="K40" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1816,14 +1928,22 @@
         <v>5561.75</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>5560</v>
+      </c>
+      <c r="K41" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1851,14 +1971,22 @@
         <v>5562</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>5560</v>
+      </c>
+      <c r="K42" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1886,14 +2014,22 @@
         <v>5562.5</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>5560</v>
+      </c>
+      <c r="K43" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1921,14 +2057,22 @@
         <v>5561.75</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>5555</v>
+      </c>
+      <c r="K44" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1956,14 +2100,22 @@
         <v>5560.5</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>5570</v>
+      </c>
+      <c r="K45" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1991,14 +2143,22 @@
         <v>5559.75</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>5560</v>
+      </c>
+      <c r="K46" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2032,8 +2192,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2067,8 +2233,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2102,8 +2274,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2315,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2172,8 +2356,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2207,8 +2397,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2242,8 +2438,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2277,8 +2479,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2312,8 +2520,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2347,8 +2561,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2382,8 +2602,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2417,8 +2643,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2452,8 +2684,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2487,8 +2725,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2522,8 +2766,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2557,8 +2807,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2592,8 +2848,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2627,8 +2889,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2662,8 +2930,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2697,8 +2971,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2732,8 +3012,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2767,8 +3053,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2802,8 +3094,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2837,8 +3135,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2872,8 +3176,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>5575</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2901,18 +3211,18 @@
         <v>5564.75</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>5550</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>5575</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M72" t="n">
@@ -2942,15 +3252,15 @@
         <v>5563.5</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>5555</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>5575</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2983,15 +3293,15 @@
         <v>5562</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>5550</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>5575</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3024,15 +3334,15 @@
         <v>5560.5</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>5550</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>5575</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3065,15 +3375,15 @@
         <v>5559</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>5545</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>5575</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3106,15 +3416,15 @@
         <v>5557.25</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>5540</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>5575</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3147,15 +3457,15 @@
         <v>5556</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>5545</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>5575</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3188,15 +3498,15 @@
         <v>5555</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>5545</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>5575</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3229,15 +3539,15 @@
         <v>5554.5</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>5550</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>5575</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3270,15 +3580,15 @@
         <v>5553.5</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>5545</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>5575</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3311,15 +3621,15 @@
         <v>5552.25</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>5530</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>5575</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3352,15 +3662,15 @@
         <v>5551.25</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>5530</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>5575</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3393,15 +3703,15 @@
         <v>5549.5</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>5530</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>5575</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3434,15 +3744,15 @@
         <v>5547.25</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>5575</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3475,15 +3785,15 @@
         <v>5546.25</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>5575</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3516,15 +3826,15 @@
         <v>5544</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>5520</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>5575</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3557,15 +3867,15 @@
         <v>5542.25</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>5520</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>5575</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3598,15 +3908,15 @@
         <v>5540.25</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>5520</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>5575</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3639,15 +3949,15 @@
         <v>5538.75</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>5520</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>5575</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3680,15 +3990,15 @@
         <v>5536.75</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>5520</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>5575</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3721,15 +4031,15 @@
         <v>5535.25</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>5520</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>5575</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3762,15 +4072,15 @@
         <v>5534</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>5530</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>5575</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3803,15 +4113,15 @@
         <v>5534</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>5550</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>5575</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3844,15 +4154,15 @@
         <v>5534</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>5550</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>5575</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3885,15 +4195,15 @@
         <v>5534</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>5545</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>5575</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3926,15 +4236,15 @@
         <v>5534.75</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>5555</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>5575</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3967,15 +4277,15 @@
         <v>5535.5</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>5560</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>5575</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4008,15 +4318,15 @@
         <v>5536</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>5555</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>5575</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4049,15 +4359,15 @@
         <v>5536.75</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>5565</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>5575</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4090,15 +4400,15 @@
         <v>5538.5</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>5580</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>5575</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4131,15 +4441,15 @@
         <v>5541</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>5580</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>5575</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4172,15 +4482,15 @@
         <v>5542.75</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>5565</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>5575</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4213,15 +4523,15 @@
         <v>5545.25</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>5580</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>5575</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4254,15 +4564,15 @@
         <v>5547</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>5570</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>5575</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4295,15 +4605,15 @@
         <v>5550</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>5595</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>5575</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4336,15 +4646,15 @@
         <v>5553.5</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>5590</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>5575</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4377,15 +4687,15 @@
         <v>5556.75</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>5585</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>5575</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4424,7 +4734,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>5575</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4463,7 +4775,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>5575</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4502,7 +4816,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>5575</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4541,7 +4857,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>5575</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4580,7 +4898,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>5575</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4619,7 +4939,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>5575</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4658,7 +4980,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>5575</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4697,7 +5021,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>5575</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4736,7 +5062,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>5575</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4775,7 +5103,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>5575</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4808,15 +5138,15 @@
         <v>5572.75</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>5555</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>5575</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4849,15 +5179,15 @@
         <v>5572.25</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>5555</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>5575</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4890,15 +5220,15 @@
         <v>5571</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>5555</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>5575</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4931,15 +5261,15 @@
         <v>5570</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>5560</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>5575</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4972,15 +5302,15 @@
         <v>5570.25</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>5570</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>5575</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5013,15 +5343,15 @@
         <v>5569.75</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>5570</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>5575</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5054,15 +5384,15 @@
         <v>5569.5</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>5565</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>5575</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5095,15 +5425,15 @@
         <v>5568.25</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>5570</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>5575</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5136,15 +5466,15 @@
         <v>5567.75</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>5580</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>5575</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5177,15 +5507,15 @@
         <v>5567.5</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>5580</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>5575</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5218,15 +5548,15 @@
         <v>5567.25</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>5570</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>5575</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5265,7 +5595,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>5575</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5304,7 +5636,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>5575</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5343,7 +5677,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>5575</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5382,7 +5718,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>5575</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5415,15 +5753,15 @@
         <v>5563</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>5575</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5456,15 +5794,15 @@
         <v>5562.75</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>5555</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>5575</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5497,15 +5835,15 @@
         <v>5562</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>5575</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5538,15 +5876,15 @@
         <v>5561.5</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>5545</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>5575</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5579,15 +5917,15 @@
         <v>5560.25</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>5575</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5620,15 +5958,15 @@
         <v>5559.25</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>5575</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5661,15 +5999,15 @@
         <v>5557.5</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>5520</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>5575</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5702,15 +6040,15 @@
         <v>5556.25</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>5530</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>5575</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5743,15 +6081,15 @@
         <v>5555</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>5575</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5784,15 +6122,15 @@
         <v>5554.25</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>5555</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>5575</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5825,15 +6163,15 @@
         <v>5553.75</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>5560</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>5575</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5866,15 +6204,15 @@
         <v>5553.25</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>5555</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>5575</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5907,15 +6245,15 @@
         <v>5552.5</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>5555</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>5575</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5948,15 +6286,15 @@
         <v>5550.5</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>5540</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>5575</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5989,15 +6327,15 @@
         <v>5549.25</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>5555</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>5575</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6030,15 +6368,15 @@
         <v>5548</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>5545</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>5575</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6071,15 +6409,15 @@
         <v>5546.75</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>5555</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>5575</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6112,15 +6450,15 @@
         <v>5546.5</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>5565</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>5575</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6153,15 +6491,15 @@
         <v>5546.75</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>5565</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>5575</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6194,15 +6532,15 @@
         <v>5546.5</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>5555</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>5575</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6235,15 +6573,15 @@
         <v>5548</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>5565</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>5575</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6276,15 +6614,15 @@
         <v>5548</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>5555</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>5575</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6317,15 +6655,15 @@
         <v>5549.5</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>5565</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>5575</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6358,15 +6696,15 @@
         <v>5550.5</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>5565</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>5575</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6399,15 +6737,15 @@
         <v>5551.75</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>5560</v>
-      </c>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>5575</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6440,15 +6778,15 @@
         <v>5553</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>5560</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>5575</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6481,15 +6819,15 @@
         <v>5555</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>5560</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>5575</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6522,15 +6860,15 @@
         <v>5557</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>5570</v>
-      </c>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>5575</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6563,15 +6901,15 @@
         <v>5558.75</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>5570</v>
-      </c>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>5575</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6604,15 +6942,15 @@
         <v>5559.25</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>5565</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>5575</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6645,15 +6983,15 @@
         <v>5559.75</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>5570</v>
-      </c>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>5575</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6686,15 +7024,15 @@
         <v>5560.5</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>5570</v>
-      </c>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>5575</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6727,15 +7065,15 @@
         <v>5561.25</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>5570</v>
-      </c>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>5575</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6768,15 +7106,15 @@
         <v>5562.25</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>5560</v>
-      </c>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>5575</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6809,15 +7147,15 @@
         <v>5562.75</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>5565</v>
-      </c>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>5575</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6850,15 +7188,15 @@
         <v>5563</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>5550</v>
-      </c>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>5575</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6891,15 +7229,15 @@
         <v>5564.25</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>5580</v>
-      </c>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>5575</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6932,15 +7270,15 @@
         <v>5564.5</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>5570</v>
-      </c>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>5575</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6973,15 +7311,15 @@
         <v>5564.75</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>5570</v>
-      </c>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>5575</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7014,15 +7352,15 @@
         <v>5565.5</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>5570</v>
-      </c>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>5575</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7055,15 +7393,15 @@
         <v>5566.25</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>5580</v>
-      </c>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>5575</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7102,7 +7440,9 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>5575</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7141,7 +7481,9 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>5575</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7180,7 +7522,9 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>5575</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7213,15 +7557,15 @@
         <v>5566.25</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>5560</v>
-      </c>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>5575</v>
+      </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7254,15 +7598,15 @@
         <v>5566.75</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>5570</v>
-      </c>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>5575</v>
+      </c>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7295,15 +7639,15 @@
         <v>5567.75</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>5580</v>
-      </c>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>5575</v>
+      </c>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7336,15 +7680,15 @@
         <v>5567.5</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>5565</v>
-      </c>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>5575</v>
+      </c>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7377,15 +7721,15 @@
         <v>5568</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>5580</v>
-      </c>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>5575</v>
+      </c>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7418,15 +7762,15 @@
         <v>5569.25</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>5590</v>
-      </c>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>5575</v>
+      </c>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7465,7 +7809,9 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>5575</v>
+      </c>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7504,7 +7850,9 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>5575</v>
+      </c>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7543,7 +7891,9 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>5575</v>
+      </c>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7582,7 +7932,9 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>5575</v>
+      </c>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7621,7 +7973,9 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>5575</v>
+      </c>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7660,7 +8014,9 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>5575</v>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7699,7 +8055,9 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>5575</v>
+      </c>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7738,7 +8096,9 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>5575</v>
+      </c>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7777,7 +8137,9 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>5575</v>
+      </c>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7816,7 +8178,9 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>5575</v>
+      </c>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7855,7 +8219,9 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>5575</v>
+      </c>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7888,15 +8254,15 @@
         <v>5569</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>5540</v>
-      </c>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>5575</v>
+      </c>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7929,15 +8295,15 @@
         <v>5569.25</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>5555</v>
-      </c>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>5575</v>
+      </c>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7970,15 +8336,15 @@
         <v>5569</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>5555</v>
-      </c>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>5575</v>
+      </c>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8011,15 +8377,15 @@
         <v>5567.5</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>5530</v>
-      </c>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>5575</v>
+      </c>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8052,15 +8418,15 @@
         <v>5565.5</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>5530</v>
-      </c>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>5575</v>
+      </c>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8093,15 +8459,15 @@
         <v>5563</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>5530</v>
-      </c>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>5575</v>
+      </c>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8134,15 +8500,15 @@
         <v>5561</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>5525</v>
-      </c>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>5575</v>
+      </c>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8175,15 +8541,15 @@
         <v>5558.25</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>5525</v>
-      </c>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>5575</v>
+      </c>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8216,15 +8582,15 @@
         <v>5555</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>5525</v>
-      </c>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>5575</v>
+      </c>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8257,15 +8623,15 @@
         <v>5552</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>5525</v>
-      </c>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>5575</v>
+      </c>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8298,15 +8664,15 @@
         <v>5548.75</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>5520</v>
-      </c>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>5575</v>
+      </c>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8339,15 +8705,15 @@
         <v>5545.75</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>5525</v>
-      </c>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>5575</v>
+      </c>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8380,15 +8746,15 @@
         <v>5542.25</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>5520</v>
-      </c>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>5575</v>
+      </c>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8421,15 +8787,15 @@
         <v>5538.75</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>5520</v>
-      </c>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>5575</v>
+      </c>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8462,15 +8828,15 @@
         <v>5536.25</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>5530</v>
-      </c>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>5575</v>
+      </c>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8503,15 +8869,15 @@
         <v>5534.75</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>5550</v>
-      </c>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>5575</v>
+      </c>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8544,15 +8910,15 @@
         <v>5533.5</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>5540</v>
-      </c>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>5575</v>
+      </c>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8585,15 +8951,15 @@
         <v>5532.25</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>5575</v>
+      </c>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8626,15 +8992,15 @@
         <v>5532.25</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>5540</v>
-      </c>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>5575</v>
+      </c>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8667,15 +9033,15 @@
         <v>5533.75</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>5555</v>
-      </c>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>5575</v>
+      </c>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8708,15 +9074,15 @@
         <v>5535.25</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>5570</v>
-      </c>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>5575</v>
+      </c>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8749,15 +9115,15 @@
         <v>5536.25</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>5575</v>
-      </c>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>5575</v>
+      </c>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8790,15 +9156,15 @@
         <v>5537.75</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>5585</v>
-      </c>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>5575</v>
+      </c>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8831,15 +9197,15 @@
         <v>5540.5</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>5585</v>
-      </c>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>5575</v>
+      </c>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8872,15 +9238,15 @@
         <v>5543.5</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>5590</v>
-      </c>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>5575</v>
+      </c>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8913,15 +9279,15 @@
         <v>5546</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>5580</v>
-      </c>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>5575</v>
+      </c>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8954,15 +9320,15 @@
         <v>5549.25</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>5590</v>
-      </c>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>5575</v>
+      </c>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8995,15 +9361,15 @@
         <v>5552.5</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>5590</v>
-      </c>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>5575</v>
+      </c>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9042,7 +9408,9 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>5575</v>
+      </c>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9081,7 +9449,9 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>5575</v>
+      </c>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9120,7 +9490,9 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>5575</v>
+      </c>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9159,7 +9531,9 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>5575</v>
+      </c>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9198,7 +9572,9 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>5575</v>
+      </c>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9237,7 +9613,9 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>5575</v>
+      </c>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9276,7 +9654,9 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>5575</v>
+      </c>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9315,7 +9695,9 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>5575</v>
+      </c>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9354,7 +9736,9 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>5575</v>
+      </c>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9393,7 +9777,9 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>5575</v>
+      </c>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9432,7 +9818,9 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>5575</v>
+      </c>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9471,7 +9859,9 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>5575</v>
+      </c>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9510,7 +9900,9 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>5575</v>
+      </c>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9549,7 +9941,9 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>5575</v>
+      </c>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9588,7 +9982,9 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>5575</v>
+      </c>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9627,7 +10023,9 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>5575</v>
+      </c>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9666,7 +10064,9 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>5575</v>
+      </c>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9705,7 +10105,9 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>5575</v>
+      </c>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9741,17 +10143,19 @@
         <v>0</v>
       </c>
       <c r="I241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>5575</v>
+      </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M241" t="n">
-        <v>1</v>
+        <v>1.029080717488789</v>
       </c>
     </row>
     <row r="242">
@@ -9780,15 +10184,11 @@
         <v>0</v>
       </c>
       <c r="I242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9823,11 +10223,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9862,11 +10258,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9901,11 +10293,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9940,11 +10328,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9979,11 +10363,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -10018,11 +10398,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -10057,11 +10433,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -10096,11 +10468,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -10135,11 +10503,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10174,11 +10538,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10213,11 +10573,7 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10252,11 +10608,7 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10291,11 +10643,7 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10330,11 +10678,7 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10369,11 +10713,7 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10404,16 +10744,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10441,7 +10779,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
@@ -10511,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
@@ -10546,7 +10884,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
@@ -10581,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>

--- a/BackTest/2019-10-29 BackTest ETC.xlsx
+++ b/BackTest/2019-10-29 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -5104,10 +5104,14 @@
         <v>-6600.030834857512</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>5525</v>
+      </c>
+      <c r="J143" t="n">
+        <v>5525</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
@@ -5137,11 +5141,19 @@
         <v>-8011.279634857512</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>5530</v>
+      </c>
+      <c r="J144" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +5182,19 @@
         <v>-7926.421634857512</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>5525</v>
+      </c>
+      <c r="J145" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +5223,19 @@
         <v>-9122.638434857512</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>5535</v>
+      </c>
+      <c r="J146" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +5264,19 @@
         <v>-9122.638434857512</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>5520</v>
+      </c>
+      <c r="J147" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5269,11 +5305,19 @@
         <v>-9122.638434857512</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>5520</v>
+      </c>
+      <c r="J148" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +5346,19 @@
         <v>-9122.638434857512</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>5520</v>
+      </c>
+      <c r="J149" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5335,11 +5387,19 @@
         <v>-9122.638434857512</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>5520</v>
+      </c>
+      <c r="J150" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5428,19 @@
         <v>-8930.740734857513</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>5520</v>
+      </c>
+      <c r="J151" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5469,19 @@
         <v>-8930.740734857513</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>5530</v>
+      </c>
+      <c r="J152" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5510,19 @@
         <v>-8929.740734857513</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>5530</v>
+      </c>
+      <c r="J153" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5551,19 @@
         <v>-8929.740734857513</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>5550</v>
+      </c>
+      <c r="J154" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +5592,19 @@
         <v>-9010.254734857512</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>5550</v>
+      </c>
+      <c r="J155" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +5633,19 @@
         <v>-8978.427534857512</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>5540</v>
+      </c>
+      <c r="J156" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +5674,19 @@
         <v>-8975.506634857513</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>5555</v>
+      </c>
+      <c r="J157" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +5715,19 @@
         <v>-8979.069434857513</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>5560</v>
+      </c>
+      <c r="J158" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +5756,19 @@
         <v>-8916.193334857513</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>5555</v>
+      </c>
+      <c r="J159" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +5797,19 @@
         <v>-8889.121734857514</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>5565</v>
+      </c>
+      <c r="J160" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +5838,19 @@
         <v>-8911.289949552855</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>5580</v>
+      </c>
+      <c r="J161" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +5879,19 @@
         <v>-9096.871349552854</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>5575</v>
+      </c>
+      <c r="J162" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +5920,19 @@
         <v>-8991.723049552853</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>5560</v>
+      </c>
+      <c r="J163" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5800,8 +5964,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5833,8 +6003,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5866,8 +6042,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5899,8 +6081,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5932,8 +6120,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5965,8 +6159,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5998,8 +6198,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6031,8 +6237,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6064,8 +6276,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6097,8 +6315,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6130,8 +6354,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6163,8 +6393,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6196,8 +6432,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6229,8 +6471,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6262,8 +6510,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6295,8 +6549,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6328,8 +6588,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6361,8 +6627,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6394,8 +6666,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6427,8 +6705,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6460,8 +6744,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6493,8 +6783,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6526,8 +6822,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6559,8 +6861,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6592,8 +6900,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6625,8 +6939,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6658,8 +6978,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6691,8 +7017,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6724,8 +7056,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6757,8 +7095,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6790,8 +7134,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6823,8 +7173,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6856,8 +7212,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6889,8 +7251,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6922,8 +7290,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6955,8 +7329,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6985,11 +7365,19 @@
         <v>-10750.41404955286</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>5520</v>
+      </c>
+      <c r="J200" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7018,11 +7406,19 @@
         <v>-10607.84674955286</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>5520</v>
+      </c>
+      <c r="J201" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7051,11 +7447,19 @@
         <v>-10589.15614955286</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>5535</v>
+      </c>
+      <c r="J202" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7084,11 +7488,19 @@
         <v>-10534.22854955286</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>5555</v>
+      </c>
+      <c r="J203" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7117,11 +7529,19 @@
         <v>-10633.92754955286</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>5560</v>
+      </c>
+      <c r="J204" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7150,11 +7570,19 @@
         <v>-10579.98584955286</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>5545</v>
+      </c>
+      <c r="J205" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7183,11 +7611,19 @@
         <v>-10635.37394955286</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>5555</v>
+      </c>
+      <c r="J206" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7216,11 +7652,19 @@
         <v>-10618.80784955286</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>5540</v>
+      </c>
+      <c r="J207" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7249,11 +7693,19 @@
         <v>-10658.91784955286</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>5555</v>
+      </c>
+      <c r="J208" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7282,11 +7734,19 @@
         <v>-10653.12834955286</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>5545</v>
+      </c>
+      <c r="J209" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7315,11 +7775,19 @@
         <v>-10531.83454955286</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>5555</v>
+      </c>
+      <c r="J210" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7348,11 +7816,19 @@
         <v>-10531.83454955286</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>5565</v>
+      </c>
+      <c r="J211" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7381,11 +7857,19 @@
         <v>-10531.83454955286</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>5565</v>
+      </c>
+      <c r="J212" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7414,11 +7898,19 @@
         <v>-10531.83454955286</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>5565</v>
+      </c>
+      <c r="J213" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7447,11 +7939,19 @@
         <v>-11922.46144955286</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>5565</v>
+      </c>
+      <c r="J214" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7483,8 +7983,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7516,8 +8022,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7549,8 +8061,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7582,8 +8100,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7615,8 +8139,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7648,8 +8178,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7681,8 +8217,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7711,11 +8253,19 @@
         <v>-11240.09074955286</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>5570</v>
+      </c>
+      <c r="J222" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7744,11 +8294,19 @@
         <v>-11206.03844955286</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>5565</v>
+      </c>
+      <c r="J223" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7780,8 +8338,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7813,8 +8377,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7846,8 +8416,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7879,8 +8455,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7912,8 +8494,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7945,8 +8533,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7978,8 +8572,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8011,8 +8611,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8044,8 +8650,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8077,8 +8689,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8110,8 +8728,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8143,8 +8767,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8176,8 +8806,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8209,8 +8845,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8242,8 +8884,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8275,8 +8923,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8308,8 +8962,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8341,8 +9001,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8374,8 +9040,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8407,8 +9079,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8440,8 +9118,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8473,8 +9157,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8506,8 +9196,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8539,8 +9235,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8572,8 +9274,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8605,8 +9313,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8638,8 +9352,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8671,8 +9391,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8704,8 +9430,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8737,8 +9469,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8770,8 +9508,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8803,8 +9547,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8836,8 +9586,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8869,8 +9625,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8899,11 +9661,19 @@
         <v>-12741.98014955286</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>5530</v>
+      </c>
+      <c r="J258" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8932,11 +9702,19 @@
         <v>-12560.84000420508</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>5530</v>
+      </c>
+      <c r="J259" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8965,11 +9743,19 @@
         <v>-12570.56040420508</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>5535</v>
+      </c>
+      <c r="J260" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -8998,11 +9784,19 @@
         <v>-12570.56040420508</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>5525</v>
+      </c>
+      <c r="J261" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9031,11 +9825,19 @@
         <v>-12570.56040420508</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>5525</v>
+      </c>
+      <c r="J262" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9064,11 +9866,19 @@
         <v>-12570.56040420508</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>5525</v>
+      </c>
+      <c r="J263" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9097,7 +9907,7 @@
         <v>-12624.15890420508</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>5525</v>
@@ -9105,7 +9915,11 @@
       <c r="J264" t="n">
         <v>5525</v>
       </c>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9134,7 +9948,7 @@
         <v>-12613.45890420508</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>5520</v>
@@ -9144,7 +9958,7 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L265" t="n">
@@ -9175,7 +9989,7 @@
         <v>-12703.45890420508</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>5525</v>
@@ -9185,7 +9999,7 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L266" t="n">
@@ -9216,15 +10030,19 @@
         <v>-12703.45890420508</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>5520</v>
       </c>
       <c r="J267" t="n">
-        <v>5520</v>
-      </c>
-      <c r="K267" t="inlineStr"/>
+        <v>5525</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9253,17 +10071,17 @@
         <v>-12473.79210420508</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>5520</v>
       </c>
       <c r="J268" t="n">
-        <v>5520</v>
+        <v>5525</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L268" t="n">
@@ -9294,17 +10112,17 @@
         <v>-12408.83170420508</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>5530</v>
       </c>
       <c r="J269" t="n">
-        <v>5520</v>
+        <v>5525</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L269" t="n">
@@ -9335,15 +10153,19 @@
         <v>-12354.63170420508</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>5535</v>
       </c>
       <c r="J270" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K270" t="inlineStr"/>
+        <v>5525</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9372,17 +10194,17 @@
         <v>-12379.13360420508</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>5540</v>
       </c>
       <c r="J271" t="n">
-        <v>5535</v>
+        <v>5525</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L271" t="n">
@@ -9413,17 +10235,17 @@
         <v>-12376.20850420507</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>5535</v>
       </c>
       <c r="J272" t="n">
-        <v>5535</v>
+        <v>5525</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L272" t="n">
@@ -9454,15 +10276,19 @@
         <v>-12375.80850420508</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>5540</v>
       </c>
       <c r="J273" t="n">
-        <v>5540</v>
-      </c>
-      <c r="K273" t="inlineStr"/>
+        <v>5525</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9491,17 +10317,17 @@
         <v>-12365.80850420508</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>5555</v>
       </c>
       <c r="J274" t="n">
-        <v>5540</v>
+        <v>5525</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L274" t="n">
@@ -9532,17 +10358,17 @@
         <v>-12338.30720420508</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>5570</v>
       </c>
       <c r="J275" t="n">
-        <v>5540</v>
+        <v>5525</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L275" t="n">
@@ -9573,11 +10399,19 @@
         <v>-12338.30720420508</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>5575</v>
+      </c>
+      <c r="J276" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9606,11 +10440,19 @@
         <v>-12322.59660420507</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>5575</v>
+      </c>
+      <c r="J277" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9639,11 +10481,19 @@
         <v>-11774.14770420508</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>5585</v>
+      </c>
+      <c r="J278" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9672,11 +10522,19 @@
         <v>-12074.44680420508</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>5590</v>
+      </c>
+      <c r="J279" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9708,8 +10566,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9741,8 +10605,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9774,8 +10644,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9807,8 +10683,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9840,8 +10722,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9873,8 +10761,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9906,8 +10800,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9939,8 +10839,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9972,8 +10878,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10005,8 +10917,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10038,8 +10956,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10071,8 +10995,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10104,8 +11034,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10137,8 +11073,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10170,8 +11112,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10203,8 +11151,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10236,8 +11190,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10269,8 +11229,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10302,8 +11268,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10335,8 +11307,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10365,11 +11343,17 @@
         <v>-12448.88490420508</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10401,8 +11385,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10434,8 +11424,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10467,8 +11463,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10500,8 +11502,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10533,8 +11541,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10566,8 +11580,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10599,8 +11619,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10632,8 +11658,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10665,8 +11697,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10698,8 +11736,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10731,8 +11775,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10764,8 +11814,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10797,8 +11853,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10830,8 +11892,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10863,8 +11931,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10896,8 +11970,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10929,8 +12009,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10962,8 +12048,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10995,8 +12087,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11028,8 +12126,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11061,8 +12165,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11091,11 +12201,17 @@
         <v>2356.826580170652</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11127,8 +12243,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11160,8 +12282,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11193,8 +12321,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11226,8 +12360,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11256,11 +12396,17 @@
         <v>3289.417580170652</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11289,11 +12435,17 @@
         <v>3396.827380170652</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11325,8 +12477,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11355,11 +12513,17 @@
         <v>5947.038480170651</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11391,8 +12555,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11424,8 +12594,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11457,8 +12633,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11490,8 +12672,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11520,15 +12708,23 @@
         <v>5214.207880170652</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
+        <v>1.068303167420815</v>
+      </c>
+      <c r="M335" t="n">
+        <v>1.026268115942029</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -11553,7 +12749,7 @@
         <v>5214.207880170652</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11586,7 +12782,7 @@
         <v>3417.883180170652</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11619,7 +12815,7 @@
         <v>6127.892180170652</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11652,7 +12848,7 @@
         <v>6127.892180170652</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11685,7 +12881,7 @@
         <v>4532.350280170652</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11718,7 +12914,7 @@
         <v>4415.287680170652</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11751,7 +12947,7 @@
         <v>3612.942580170652</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11784,7 +12980,7 @@
         <v>3694.618680170652</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11817,7 +13013,7 @@
         <v>3694.618680170652</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11850,7 +13046,7 @@
         <v>2328.710880170652</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11883,7 +13079,7 @@
         <v>2831.009980170652</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11916,7 +13112,7 @@
         <v>3247.623280170652</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11949,7 +13145,7 @@
         <v>3247.623280170652</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11982,7 +13178,7 @@
         <v>3483.696780170652</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12015,7 +13211,7 @@
         <v>4503.059080170652</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12048,7 +13244,7 @@
         <v>4447.259780170652</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12081,7 +13277,7 @@
         <v>4146.960680170652</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12114,7 +13310,7 @@
         <v>4146.960680170652</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12147,7 +13343,7 @@
         <v>3571.589880170652</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12180,7 +13376,7 @@
         <v>3571.589880170652</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12213,7 +13409,7 @@
         <v>3492.454980170652</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12345,7 +13541,7 @@
         <v>3832.203780170652</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12378,7 +13574,7 @@
         <v>3832.203780170652</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12510,7 +13706,7 @@
         <v>3643.537180170652</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12576,7 +13772,7 @@
         <v>3546.966880170652</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12642,7 +13838,7 @@
         <v>3386.291280170652</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12675,7 +13871,7 @@
         <v>4612.973980170652</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12708,7 +13904,7 @@
         <v>4677.146680170652</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12741,7 +13937,7 @@
         <v>4268.247580170652</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12774,7 +13970,7 @@
         <v>5538.253580170653</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12807,7 +14003,7 @@
         <v>6332.179280170652</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12840,7 +14036,7 @@
         <v>6281.732580170652</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12873,7 +14069,7 @@
         <v>6283.732580170652</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12906,7 +14102,7 @@
         <v>6283.561380170652</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12939,7 +14135,7 @@
         <v>6266.894680170652</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12972,7 +14168,7 @@
         <v>6267.083947632322</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13005,7 +14201,7 @@
         <v>5966.784847632322</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13038,7 +14234,7 @@
         <v>5875.179147632321</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13071,7 +14267,7 @@
         <v>6216.763347632322</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13104,7 +14300,7 @@
         <v>3988.446747632322</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13137,7 +14333,7 @@
         <v>3943.313947632322</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13170,7 +14366,7 @@
         <v>3710.158568180267</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13203,7 +14399,7 @@
         <v>3718.760668180267</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13236,7 +14432,7 @@
         <v>3676.473368180267</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13269,7 +14465,7 @@
         <v>3167.396068180267</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13302,7 +14498,7 @@
         <v>3264.529668180267</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13335,7 +14531,7 @@
         <v>3296.546368180268</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13368,7 +14564,7 @@
         <v>3296.546368180268</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13401,7 +14597,7 @@
         <v>3204.948568180268</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13434,7 +14630,7 @@
         <v>3244.948568180268</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13467,7 +14663,7 @@
         <v>3384.948568180268</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13500,7 +14696,7 @@
         <v>3141.961168180268</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13533,7 +14729,7 @@
         <v>3141.961168180268</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13566,7 +14762,7 @@
         <v>3141.961168180268</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13599,7 +14795,7 @@
         <v>3141.961168180268</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13632,7 +14828,7 @@
         <v>3026.145268180268</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13665,7 +14861,7 @@
         <v>3026.345268180267</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13698,7 +14894,7 @@
         <v>3026.345268180267</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13731,7 +14927,7 @@
         <v>3122.734268180267</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13764,7 +14960,7 @@
         <v>3209.007868180267</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13797,7 +14993,7 @@
         <v>3280.053868180267</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13830,7 +15026,7 @@
         <v>3266.330968180267</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13863,7 +15059,7 @@
         <v>3187.804318651561</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14226,7 +15422,7 @@
         <v>5105.036918651562</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14259,7 +15455,7 @@
         <v>5070.848018651562</v>
       </c>
       <c r="H418" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14292,7 +15488,7 @@
         <v>4368.136018651561</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14325,7 +15521,7 @@
         <v>4490.87579885547</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14358,7 +15554,7 @@
         <v>2246.56069885547</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14391,7 +15587,7 @@
         <v>2246.56069885547</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14424,7 +15620,7 @@
         <v>2246.56069885547</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14457,7 +15653,7 @@
         <v>2246.56069885547</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14490,7 +15686,7 @@
         <v>2246.56069885547</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14523,7 +15719,7 @@
         <v>870.3446988554701</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14556,7 +15752,7 @@
         <v>2574.95049885547</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14589,7 +15785,7 @@
         <v>2574.95049885547</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14622,7 +15818,7 @@
         <v>2574.95049885547</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14655,7 +15851,7 @@
         <v>2574.95049885547</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14688,7 +15884,7 @@
         <v>2574.95049885547</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14721,7 +15917,7 @@
         <v>2574.95049885547</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14754,7 +15950,7 @@
         <v>2574.95049885547</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14787,7 +15983,7 @@
         <v>1672.59379885547</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14820,7 +16016,7 @@
         <v>2369.54759885547</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14853,7 +16049,7 @@
         <v>2799.18559885547</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14886,7 +16082,7 @@
         <v>2799.18559885547</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14919,7 +16115,7 @@
         <v>2590.92399885547</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14952,7 +16148,7 @@
         <v>2690.49319885547</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14985,7 +16181,7 @@
         <v>2662.54599885547</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15018,7 +16214,7 @@
         <v>2771.35369885547</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15051,7 +16247,7 @@
         <v>2763.87819885547</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15084,7 +16280,7 @@
         <v>2378.28819885547</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15117,7 +16313,7 @@
         <v>2378.28819885547</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15381,7 +16577,7 @@
         <v>2787.73949885547</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15414,7 +16610,7 @@
         <v>2787.73949885547</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15447,7 +16643,7 @@
         <v>2056.32529885547</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15480,7 +16676,7 @@
         <v>1486.055698855469</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15513,7 +16709,7 @@
         <v>1525.40249885547</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15546,7 +16742,7 @@
         <v>1511.73489885547</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15579,7 +16775,7 @@
         <v>1565.66949885547</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15612,7 +16808,7 @@
         <v>1229.25739885547</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15645,7 +16841,7 @@
         <v>1229.25739885547</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15678,7 +16874,7 @@
         <v>1570.57619885547</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15711,7 +16907,7 @@
         <v>919.9623988554696</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15744,7 +16940,7 @@
         <v>924.2729206689854</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15777,7 +16973,7 @@
         <v>558.8251206689854</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15810,7 +17006,7 @@
         <v>570.4186206689853</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15843,7 +17039,7 @@
         <v>-174.9112793310146</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15876,7 +17072,7 @@
         <v>-214.9112793310146</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15909,7 +17105,7 @@
         <v>-225.9641793310146</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15942,7 +17138,7 @@
         <v>-296.1080793310146</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15975,7 +17171,7 @@
         <v>-209.8268023681156</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16008,7 +17204,7 @@
         <v>-488.7413023681155</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16041,7 +17237,7 @@
         <v>-1234.136102368116</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16052,6 +17248,6 @@
       <c r="M472" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest ETC.xlsx
+++ b/BackTest/2019-10-29 BackTest ETC.xlsx
@@ -8932,17 +8932,11 @@
         <v>-12560.84000420508</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>5530</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8971,17 +8965,11 @@
         <v>-12570.56040420508</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>5535</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9010,17 +8998,11 @@
         <v>-12570.56040420508</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>5525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9054,12 +9036,10 @@
       <c r="I262" t="n">
         <v>5525</v>
       </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="n">
+        <v>5525</v>
+      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9093,10 +9073,12 @@
       <c r="I263" t="n">
         <v>5525</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>5525</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L263" t="n">
@@ -9132,10 +9114,12 @@
       <c r="I264" t="n">
         <v>5525</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>5525</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L264" t="n">
@@ -9171,12 +9155,10 @@
       <c r="I265" t="n">
         <v>5520</v>
       </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="n">
+        <v>5520</v>
+      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9210,10 +9192,12 @@
       <c r="I266" t="n">
         <v>5525</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>5520</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L266" t="n">
@@ -9249,10 +9233,12 @@
       <c r="I267" t="n">
         <v>5520</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>5520</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L267" t="n">
@@ -9288,12 +9274,10 @@
       <c r="I268" t="n">
         <v>5520</v>
       </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="n">
+        <v>5520</v>
+      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9327,10 +9311,12 @@
       <c r="I269" t="n">
         <v>5530</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>5520</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L269" t="n">
@@ -9366,10 +9352,12 @@
       <c r="I270" t="n">
         <v>5535</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>5520</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L270" t="n">
@@ -9405,12 +9393,10 @@
       <c r="I271" t="n">
         <v>5540</v>
       </c>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="n">
+        <v>5540</v>
+      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9444,10 +9430,12 @@
       <c r="I272" t="n">
         <v>5535</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>5540</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L272" t="n">
@@ -9483,10 +9471,12 @@
       <c r="I273" t="n">
         <v>5540</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>5540</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L273" t="n">
@@ -9522,12 +9512,10 @@
       <c r="I274" t="n">
         <v>5555</v>
       </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="n">
+        <v>5555</v>
+      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9561,10 +9549,12 @@
       <c r="I275" t="n">
         <v>5570</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>5555</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L275" t="n">
@@ -9595,13 +9585,17 @@
         <v>-12338.30720420508</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>5575</v>
+      </c>
+      <c r="J276" t="n">
+        <v>5555</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L276" t="n">
@@ -9632,15 +9626,15 @@
         <v>-12322.59660420507</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>5575</v>
+      </c>
+      <c r="J277" t="n">
+        <v>5575</v>
+      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9672,10 +9666,12 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>5575</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L278" t="n">
@@ -9709,10 +9705,12 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>5575</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L279" t="n">
@@ -9747,11 +9745,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9784,11 +9778,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9821,11 +9811,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9858,11 +9844,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9895,11 +9877,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9932,11 +9910,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9969,11 +9943,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10006,11 +9976,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10043,11 +10009,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10080,11 +10042,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10117,11 +10075,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10154,11 +10108,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10191,11 +10141,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10228,11 +10174,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10265,11 +10207,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10302,11 +10240,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10339,11 +10273,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10376,11 +10306,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10413,11 +10339,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10446,16 +10368,14 @@
         <v>-14723.24810420507</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
       <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
@@ -10481,7 +10401,7 @@
         <v>-12448.88490420508</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10514,7 +10434,7 @@
         <v>-11470.25060420508</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10547,7 +10467,7 @@
         <v>-10423.22010420507</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10580,7 +10500,7 @@
         <v>-9992.982250227316</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10613,7 +10533,7 @@
         <v>-9534.746450227316</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10646,7 +10566,7 @@
         <v>-9527.917850227315</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10679,7 +10599,7 @@
         <v>-10606.08475022732</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10712,7 +10632,7 @@
         <v>-16032.98435022731</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10745,7 +10665,7 @@
         <v>-16032.98435022731</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10778,7 +10698,7 @@
         <v>-15666.50045022732</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10811,7 +10731,7 @@
         <v>-14424.96755022731</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10844,7 +10764,7 @@
         <v>-12930.63691982935</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10877,7 +10797,7 @@
         <v>-10398.13241982935</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11174,7 +11094,7 @@
         <v>3786.636880170652</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11207,7 +11127,7 @@
         <v>2356.826580170652</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11339,7 +11259,7 @@
         <v>3289.417580170652</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11372,7 +11292,7 @@
         <v>3289.417580170652</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11405,7 +11325,7 @@
         <v>3396.827380170652</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11438,7 +11358,7 @@
         <v>3346.344480170652</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11471,7 +11391,7 @@
         <v>5947.038480170651</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11504,7 +11424,7 @@
         <v>5947.038480170651</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11537,7 +11457,7 @@
         <v>5742.268880170652</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11570,7 +11490,7 @@
         <v>5226.517780170652</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11603,7 +11523,7 @@
         <v>5226.517780170652</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11636,7 +11556,7 @@
         <v>5214.207880170652</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11669,7 +11589,7 @@
         <v>5214.207880170652</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11702,7 +11622,7 @@
         <v>3417.883180170652</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11735,7 +11655,7 @@
         <v>6127.892180170652</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11867,7 +11787,7 @@
         <v>3612.942580170652</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11900,7 +11820,7 @@
         <v>3694.618680170652</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
